--- a/hardware/electornics/altium/20.1.12/Output/Design/BOM/Bill of Materials-Brduino-Nano.xlsx
+++ b/hardware/electornics/altium/20.1.12/Output/Design/BOM/Bill of Materials-Brduino-Nano.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="218">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -243,6 +243,9 @@
     <t>IC REG LINEAR POS ADJ 2A 20VQFN</t>
   </si>
   <si>
+    <t>CONN HEADER VERT 15POS 2.54MM</t>
+  </si>
+  <si>
     <t>Crystals 32.768 kHz 9.0 pF +/-20 PPM</t>
   </si>
   <si>
@@ -324,6 +327,9 @@
     <t>U2</t>
   </si>
   <si>
+    <t>X1, X2</t>
+  </si>
+  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -468,6 +474,9 @@
     <t>Texas Instruments</t>
   </si>
   <si>
+    <t>Samtec Inc.</t>
+  </si>
+  <si>
     <t>Micro Crystal</t>
   </si>
   <si>
@@ -549,6 +558,9 @@
     <t>TPS7A8300RGWT</t>
   </si>
   <si>
+    <t>HTSW-115-08-F-S</t>
+  </si>
+  <si>
     <t>CM7V-T1A-32.768k-9pF-20PPM-TA-QA T3</t>
   </si>
   <si>
@@ -642,6 +654,9 @@
     <t>296-36510-6-ND</t>
   </si>
   <si>
+    <t>HTSW-115-08-F-S-ND</t>
+  </si>
+  <si>
     <t>428-201568-MG03</t>
   </si>
   <si>
@@ -657,25 +672,19 @@
     <t>Brduino-Nano.PrjPcb</t>
   </si>
   <si>
-    <t>Brduino-Nano.PcbDoc</t>
-  </si>
-  <si>
-    <t>C:\Users\hoeren\Desktop\Repos\Semi-ATE\Brduino-Nano\hardware\electornics\altium\20.1.12\Brduino-Nano.PcbDoc</t>
-  </si>
-  <si>
-    <t>Bill of Materials for PCB Document [Brduino-Nano.PcbDoc]</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>6:28 PM</t>
+    <t>Bill of Materials for Project [Brduino-Nano.PrjPcb] (No PCB Document Selected)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>7:21 PM</t>
   </si>
   <si>
     <t>9/14/2020</t>
   </si>
   <si>
-    <t>9/14/2020 6:28 PM</t>
+    <t>9/14/2020 7:21 PM</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -1602,7 +1611,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M39"/>
+  <dimension ref="B2:M40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -1770,31 +1779,31 @@
         <v>15</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K9" s="48" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L9" s="49"/>
     </row>
@@ -1803,28 +1812,28 @@
         <v>43</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H10" s="56">
         <v>10</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K10" s="50">
         <v>0.08</v>
@@ -1840,34 +1849,34 @@
         <v>44</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H11" s="57">
         <v>1</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K11" s="51">
         <v>0.08</v>
       </c>
       <c r="L11" s="59">
-        <f t="shared" ref="L11:L35" si="0">H11*K11</f>
+        <f t="shared" ref="L11:L36" si="0">H11*K11</f>
         <v>0.08</v>
       </c>
       <c r="M11" s="12"/>
@@ -1877,28 +1886,28 @@
         <v>45</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H12" s="56">
         <v>2</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K12" s="50">
         <v>0.21</v>
@@ -1914,28 +1923,28 @@
         <v>46</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H13" s="57">
         <v>1</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J13" s="51" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K13" s="51">
         <v>0.21</v>
@@ -1951,28 +1960,28 @@
         <v>47</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H14" s="56">
         <v>2</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K14" s="50">
         <v>0.08</v>
@@ -1988,28 +1997,28 @@
         <v>48</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H15" s="57">
         <v>1</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J15" s="51" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K15" s="51">
         <v>0.49</v>
@@ -2025,28 +2034,28 @@
         <v>49</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F16" s="62" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16" s="62" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H16" s="56">
         <v>2</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K16" s="50">
         <v>0.08</v>
@@ -2062,28 +2071,28 @@
         <v>50</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H17" s="57">
         <v>2</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K17" s="51">
         <v>0.37</v>
@@ -2099,26 +2108,26 @@
         <v>51</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="50"/>
       <c r="E18" s="50" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H18" s="56">
         <v>1</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K18" s="50">
         <v>0.18</v>
@@ -2134,28 +2143,28 @@
         <v>52</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G19" s="63" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H19" s="57">
         <v>1</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J19" s="51" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K19" s="51">
         <v>0.34</v>
@@ -2171,26 +2180,26 @@
         <v>53</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="50"/>
       <c r="E20" s="50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H20" s="56">
         <v>1</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J20" s="50" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K20" s="50">
         <v>0.26</v>
@@ -2206,28 +2215,28 @@
         <v>54</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H21" s="57">
         <v>2</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K21" s="51">
         <v>0.08</v>
@@ -2243,28 +2252,28 @@
         <v>55</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H22" s="56">
         <v>1</v>
       </c>
       <c r="I22" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K22" s="50">
         <v>0.18</v>
@@ -2280,26 +2289,26 @@
         <v>56</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="51"/>
       <c r="E23" s="51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F23" s="63" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G23" s="63" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H23" s="57">
         <v>1</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J23" s="51" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K23" s="51">
         <v>0.31</v>
@@ -2315,28 +2324,28 @@
         <v>57</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H24" s="56">
         <v>2</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K24" s="50">
         <v>0.08</v>
@@ -2352,28 +2361,28 @@
         <v>58</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H25" s="57">
         <v>3</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J25" s="51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K25" s="51">
         <v>0.08</v>
@@ -2389,28 +2398,28 @@
         <v>59</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F26" s="62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H26" s="56">
         <v>1</v>
       </c>
       <c r="I26" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K26" s="50">
         <v>0.08</v>
@@ -2426,34 +2435,34 @@
         <v>60</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F27" s="63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H27" s="57">
         <v>1</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K27" s="51">
         <v>0.08</v>
       </c>
       <c r="L27" s="59">
-        <f t="shared" ref="L27:L35" si="8">H27*K27</f>
+        <f t="shared" ref="L27:L36" si="8">H27*K27</f>
         <v>0.08</v>
       </c>
       <c r="M27" s="12"/>
@@ -2463,28 +2472,28 @@
         <v>61</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H28" s="56">
         <v>3</v>
       </c>
       <c r="I28" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J28" s="50" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K28" s="50">
         <v>0.08</v>
@@ -2500,28 +2509,28 @@
         <v>62</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H29" s="57">
         <v>1</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J29" s="51" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K29" s="51">
         <v>0.08</v>
@@ -2537,28 +2546,28 @@
         <v>63</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F30" s="62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G30" s="62" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H30" s="56">
         <v>1</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K30" s="50">
         <v>0.08</v>
@@ -2574,28 +2583,28 @@
         <v>64</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F31" s="63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H31" s="57">
         <v>1</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K31" s="51">
         <v>0.08</v>
@@ -2611,26 +2620,26 @@
         <v>65</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="50" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" s="62" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H32" s="56">
         <v>1</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J32" s="50" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K32" s="50">
         <v>7.16</v>
@@ -2646,26 +2655,26 @@
         <v>66</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="51"/>
       <c r="E33" s="51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H33" s="57">
         <v>1</v>
       </c>
       <c r="I33" s="55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K33" s="51">
         <v>4.57</v>
@@ -2681,35 +2690,31 @@
         <v>67</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>128</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="62" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G34" s="62" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H34" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="53" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J34" s="50" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K34" s="50">
-        <v>0.37</v>
+        <v>1.03</v>
       </c>
       <c r="L34" s="58">
         <f>H34*K34</f>
-        <v>0.37</v>
+        <v>2.06</v>
       </c>
       <c r="M34" s="12"/>
     </row>
@@ -2718,82 +2723,105 @@
         <v>68</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F35" s="63" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G35" s="63" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H35" s="57">
         <v>1</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J35" s="51" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K35" s="51">
+        <v>0.37</v>
+      </c>
+      <c r="L35" s="59">
+        <f t="shared" ref="L35:L36" si="12">H35*K35</f>
+        <v>0.37</v>
+      </c>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="2:13" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="56">
+        <v>1</v>
+      </c>
+      <c r="I36" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="50">
         <v>0.3</v>
       </c>
-      <c r="L35" s="59">
-        <f t="shared" ref="L35" si="12">H35*K35</f>
+      <c r="L36" s="58">
+        <f>H36*K36</f>
         <v>0.3</v>
       </c>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="2:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="61">
-        <f>SUM(H10:H35)</f>
-        <v>45</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="60">
-        <f>SUM(L10:L35)</f>
-        <v>17.930000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="29" t="s">
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="2:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="36"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="61">
+        <f>SUM(H10:H36)</f>
+        <v>47</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="60">
+        <f>SUM(L10:L36)</f>
+        <v>19.990000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="2:13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="30"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -2802,8 +2830,8 @@
     <row r="39" spans="2:13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="6"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2812,6 +2840,20 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="2:13" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2855,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2863,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2879,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2887,7 +2929,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2903,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2911,7 +2953,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2919,7 +2961,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2927,7 +2969,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2935,7 +2977,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2943,7 +2985,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2951,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2959,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/hardware/electornics/altium/20.1.12/Output/Design/BOM/Bill of Materials-Brduino-Nano.xlsx
+++ b/hardware/electornics/altium/20.1.12/Output/Design/BOM/Bill of Materials-Brduino-Nano.xlsx
@@ -678,13 +678,13 @@
     <t>47</t>
   </si>
   <si>
-    <t>7:21 PM</t>
-  </si>
-  <si>
-    <t>9/14/2020</t>
-  </si>
-  <si>
-    <t>9/14/2020 7:21 PM</t>
+    <t>11:50 AM</t>
+  </si>
+  <si>
+    <t>9/18/2020</t>
+  </si>
+  <si>
+    <t>9/18/2020 11:50 AM</t>
   </si>
   <si>
     <t>Bill of Materials</t>

--- a/hardware/electornics/altium/20.1.12/Output/Design/BOM/Bill of Materials-Brduino-Nano.xlsx
+++ b/hardware/electornics/altium/20.1.12/Output/Design/BOM/Bill of Materials-Brduino-Nano.xlsx
@@ -162,7 +162,7 @@
     <t>Mörz</t>
   </si>
   <si>
-    <t>V1.0</t>
+    <t>V1.1</t>
   </si>
   <si>
     <t>None</t>
@@ -201,7 +201,7 @@
     <t>LED GREEN CLEAR 1608 SMD</t>
   </si>
   <si>
-    <t>MICRO B SKT, BOTTOM-SMT, R/A, 30</t>
+    <t>CONN RCPT USB2.0 MINI AB 5P R/A</t>
   </si>
   <si>
     <t>RES SMD 0 OHM JUMPER 1/10W 0603</t>
@@ -297,7 +297,7 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>R1, R5</t>
+    <t>R1, R5, R10</t>
   </si>
   <si>
     <t>R2, R15, R20</t>
@@ -453,13 +453,13 @@
     <t>KEMET</t>
   </si>
   <si>
-    <t>ON Semiconductor</t>
+    <t>ONSEMI</t>
   </si>
   <si>
     <t>KINGBRIGHT</t>
   </si>
   <si>
-    <t>GCT</t>
+    <t>Molex</t>
   </si>
   <si>
     <t>WUERTH</t>
@@ -516,7 +516,7 @@
     <t>APHD1608LCGCK</t>
   </si>
   <si>
-    <t>USB3080-30-00-A</t>
+    <t>0565790519</t>
   </si>
   <si>
     <t>RC0603JR-070RL</t>
@@ -576,10 +576,10 @@
     <t>DigiKey</t>
   </si>
   <si>
-    <t>Mouseer</t>
-  </si>
-  <si>
-    <t>02. Distributor PN</t>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>02. distributor PN</t>
   </si>
   <si>
     <t>311-2077-6-ND</t>
@@ -612,7 +612,7 @@
     <t>754-2031-6-ND</t>
   </si>
   <si>
-    <t>2073-USB3080-30-00-ATR-ND</t>
+    <t>WM17121-ND</t>
   </si>
   <si>
     <t>311-0.0GRDKR-ND</t>
@@ -675,16 +675,16 @@
     <t>Bill of Materials for Project [Brduino-Nano.PrjPcb] (No PCB Document Selected)</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>11:50 AM</t>
-  </si>
-  <si>
-    <t>9/18/2020</t>
-  </si>
-  <si>
-    <t>9/18/2020 11:50 AM</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1:15 PM</t>
+  </si>
+  <si>
+    <t>10/13/2020</t>
+  </si>
+  <si>
+    <t>10/13/2020 1:15 PM</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -2202,11 +2202,11 @@
         <v>190</v>
       </c>
       <c r="K20" s="50">
-        <v>0.26</v>
+        <v>2.04</v>
       </c>
       <c r="L20" s="58">
         <f>H20*K20</f>
-        <v>0.26</v>
+        <v>2.04</v>
       </c>
       <c r="M20" s="12"/>
     </row>
@@ -2339,7 +2339,7 @@
         <v>162</v>
       </c>
       <c r="H24" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" s="53" t="s">
         <v>177</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="L24" s="58">
         <f>H24*K24</f>
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="M24" s="12"/>
     </row>
@@ -2801,14 +2801,14 @@
       <c r="G37" s="38"/>
       <c r="H37" s="61">
         <f>SUM(H10:H36)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="60">
         <f>SUM(L10:L36)</f>
-        <v>19.990000000000002</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="38" spans="2:13" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
